--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>1.457587930218191</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.615955567859125</v>
+        <v>-8.69571387677092</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.067084131358891</v>
+        <v>-3.054306043785366</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.437576483881813</v>
+        <v>-5.449870156250194</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>1.623934615351861</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.85985207749764</v>
+        <v>-8.945672122625155</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.1627234036177</v>
+        <v>-3.145389194655255</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.364678541659083</v>
+        <v>-5.38158070462775</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>1.651736239763868</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.679587343023792</v>
+        <v>-9.762880573702855</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.047903907695762</v>
+        <v>-3.027506099868353</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.240367126176893</v>
+        <v>-5.252922644602108</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.536942890263815</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.44946711932865</v>
+        <v>-10.52931707436034</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.950680466793105</v>
+        <v>-2.934079426789796</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.446544711328396</v>
+        <v>-5.463329043571489</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>1.306014652300518</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.2283805845943</v>
+        <v>-11.30862330871124</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.797565985059118</v>
+        <v>-2.783819067075306</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.999796061460176</v>
+        <v>-5.016397101463485</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.9874068300230907</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.88968589343273</v>
+        <v>-11.97008572518377</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.766471765810019</v>
+        <v>-2.752868863157465</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.140250286346214</v>
+        <v>-5.15280580477143</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.6179790902944631</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.38634240173361</v>
+        <v>-12.46904647878479</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.646480810265599</v>
+        <v>-2.63222329247096</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.700165618624434</v>
+        <v>-4.711608291308103</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2358809421435034</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.36427196249634</v>
+        <v>-13.44354585620299</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.392895996524207</v>
+        <v>-2.378625386426726</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.617736479932927</v>
+        <v>-4.624727769650408</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1187315886615616</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.11139731646228</v>
+        <v>-14.18796110348069</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.36849194402723</v>
+        <v>-2.355988794813381</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.251152000364597</v>
+        <v>-4.248834662761611</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4077498578852057</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.80932179634901</v>
+        <v>-14.88534879895091</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.190803209859324</v>
+        <v>-2.180198444557526</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.036097833886404</v>
+        <v>-4.03629421842903</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6008959478042256</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.47420130386323</v>
+        <v>-15.54590784652736</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.174110523736123</v>
+        <v>-2.168088064428929</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.518820948609807</v>
+        <v>-3.518271071890455</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.678844209624355</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.44553234399373</v>
+        <v>-16.51630933315609</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.010273445974763</v>
+        <v>-2.001567064585015</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.877769432267532</v>
+        <v>-2.879615446968216</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.6288112283431458</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.08924159781287</v>
+        <v>-17.15396994306236</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.727113120113912</v>
+        <v>-1.722923583204559</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.515662520271073</v>
+        <v>-2.511839567841289</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.4520481366144362</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.99537296979157</v>
+        <v>-18.05784943895229</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.557751090553343</v>
+        <v>-1.55696555238284</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.918601141476997</v>
+        <v>-1.919059372076457</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1634669741048347</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.91307793748236</v>
+        <v>-18.97175763881898</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.389672106671264</v>
+        <v>-1.393337951466947</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.570306608978558</v>
+        <v>-1.556507321783379</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2186157382400776</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.70359118306578</v>
+        <v>-19.76018920825056</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.142725090470627</v>
+        <v>-1.15139219495185</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.042045281617753</v>
+        <v>-1.026413072024732</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6670826477086793</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69098647878308</v>
+        <v>-20.74377464384092</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.044467357643473</v>
+        <v>-1.055019753733904</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6807239077917973</v>
+        <v>-0.6670817282307188</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.148253205423453</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.53168252115884</v>
+        <v>-21.58465397845646</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8932643521243783</v>
+        <v>-0.9052569015273993</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3126861826080358</v>
+        <v>-0.2941082048756265</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.632230818033729</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18117857283402</v>
+        <v>-22.23490938369646</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6359613243759359</v>
+        <v>-0.6523136106252517</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06503984667860303</v>
+        <v>0.07644324245374644</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.089990089880745</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81190026223418</v>
+        <v>-22.86229253587198</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3345241437480349</v>
+        <v>-0.3523034910070988</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3810487603693452</v>
+        <v>0.3964191239055315</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.495082131143565</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44247793630307</v>
+        <v>-23.49249053315846</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06238753687991679</v>
+        <v>-0.0863464510802755</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3440237279329438</v>
+        <v>0.3636752744983747</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.827575630501424</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95403348523783</v>
+        <v>-23.99992200669808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05404231229155313</v>
+        <v>0.02653538402108666</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6030418473536524</v>
+        <v>0.6287813147404858</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.073426126044292</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.33809618909987</v>
+        <v>-24.3841680027999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03534650383356831</v>
+        <v>0.008127606225619808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5341763344061732</v>
+        <v>0.5579650486695895</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.223688932422779</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61080885729302</v>
+        <v>-24.65406582588209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3220024745531606</v>
+        <v>0.2967343300686293</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5234275537731161</v>
+        <v>0.5473210064592662</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.275521483706797</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.62822162007252</v>
+        <v>-24.66656897509593</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3353435311488794</v>
+        <v>0.3106907248979092</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3629290132363963</v>
+        <v>0.3899515263017189</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.233066081787658</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60618727438989</v>
+        <v>-24.63855144701464</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1538056599455058</v>
+        <v>0.1285637000666579</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3393104989099224</v>
+        <v>0.3649452278740221</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.105981920838617</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.71887272494863</v>
+        <v>-24.74915522142154</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2690441095583786</v>
+        <v>0.2466169947905019</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05210465147097768</v>
+        <v>0.07711094989867447</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.907199777337024</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76474815410604</v>
+        <v>-24.79229435928503</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2145932220396399</v>
+        <v>0.1986206125727341</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04201591365819103</v>
+        <v>-0.02117296753416313</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.656141022877526</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53777999204187</v>
+        <v>-24.56540475103791</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09033417576881779</v>
+        <v>0.07010656787835101</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2378505795647296</v>
+        <v>-0.2167719719895506</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.375142317764283</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06483364418736</v>
+        <v>-24.09632063252171</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08831796113119197</v>
+        <v>0.07042078314655244</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6962775635677678</v>
+        <v>-0.680160938769603</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.085204927253233</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15057513549782</v>
+        <v>-24.17749291014041</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1519203683362972</v>
+        <v>0.1342588518028087</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7506891741779814</v>
+        <v>-0.7422970080564349</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.810197917638207</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72676420020831</v>
+        <v>-23.75661465068745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06466016989619297</v>
+        <v>0.05152859014594172</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.212245218560192</v>
+        <v>-1.206327497675732</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.572564888931001</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16574593113751</v>
+        <v>-23.19259824426589</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09260457183862056</v>
+        <v>-0.1016906300107785</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.284789668606196</v>
+        <v>-1.281791531255441</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.387881791457758</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82386662703151</v>
+        <v>-22.84816594110576</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2836867318136125</v>
+        <v>-0.2945402508694034</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.306653814351879</v>
+        <v>-1.305488599398965</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.268525026355684</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.0977413268237</v>
+        <v>-22.12235485616615</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4160106366349379</v>
+        <v>-0.4229626494438944</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.508746601016763</v>
+        <v>-1.511299600070899</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.226553675519851</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28468313574683</v>
+        <v>-21.31518820136805</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3524082294298326</v>
+        <v>-0.3581950272858756</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.637417753345246</v>
+        <v>-1.633018739590426</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.264239768470486</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.90985050538821</v>
+        <v>-20.93869284854853</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4067936554343627</v>
+        <v>-0.4162201134804055</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.886524999514768</v>
+        <v>-1.882204539576999</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.376339671326055</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25606017838094</v>
+        <v>-20.28384204501108</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2585626026603402</v>
+        <v>-0.267321353261455</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.038657558535625</v>
+        <v>-2.035567775064978</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.560388053970304</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95292099838361</v>
+        <v>-19.97403888286732</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5397852677006162</v>
+        <v>-0.5482690799420546</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.263989182744572</v>
+        <v>-2.258935553847666</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.805161643167359</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41683047392345</v>
+        <v>-19.44302817190975</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2619273244906638</v>
+        <v>-0.2713537825367066</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.103595380630586</v>
+        <v>-2.105245010788644</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.092339174480427</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.85996246485348</v>
+        <v>-18.88576739375452</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.001704713208516468</v>
+        <v>-0.01568729264347991</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.074019868511127</v>
+        <v>-2.083079742077602</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.409562307798965</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95620079968913</v>
+        <v>-17.98609052707679</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01145847882560239</v>
+        <v>-0.02460315087869536</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.962813848173506</v>
+        <v>-1.97649530464311</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.74104003513005</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62105093924378</v>
+        <v>-17.65113705117407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03532031922788485</v>
+        <v>0.02445370786925222</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.165155388592382</v>
+        <v>-2.179962783106375</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>3.066825495522237</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11178654330632</v>
+        <v>-17.139358933091</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005469868748749417</v>
+        <v>-0.006784526711106183</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.206605619389287</v>
+        <v>-2.221740321474322</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.374063812748664</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73536974430386</v>
+        <v>-16.76150198077594</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0229873699509789</v>
+        <v>0.01225168162076352</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.145359826695692</v>
+        <v>-2.164330573513354</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.651882883935142</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06507002341316</v>
+        <v>-16.09346722827687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.028813444715547</v>
+        <v>0.02207090875205807</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.434948473251831</v>
+        <v>-2.458593172183989</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.888329774284809</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41557397173798</v>
+        <v>-15.43970308587528</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.002647359013120746</v>
+        <v>-0.006548865259955114</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.368465759421547</v>
+        <v>-2.394165949899855</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.075319997301596</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.87846224765616</v>
+        <v>-14.90548476072149</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1492102616480599</v>
+        <v>0.1423629872618372</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.548668215735064</v>
+        <v>-2.581307326719487</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.210554469478631</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.1795558450563</v>
+        <v>-14.20655217351594</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2955560228128739</v>
+        <v>0.2867449030003923</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.457205388082766</v>
+        <v>-2.50191560228726</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.291734159463322</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41620912786946</v>
+        <v>-13.43550718225817</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2901227171335576</v>
+        <v>0.2839824271007881</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.522627625382871</v>
+        <v>-2.573098452837725</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.317581657623737</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82990962201129</v>
+        <v>-12.84606552371798</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3747906396110001</v>
+        <v>0.3664246580951371</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.533612067467079</v>
+        <v>-2.585483771325998</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.294729204022145</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17795221740185</v>
+        <v>-12.19387245765739</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4237296676333721</v>
+        <v>0.4175501006920774</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.552543537376215</v>
+        <v>-2.606457640478443</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>4.228799655745847</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80039638805216</v>
+        <v>-11.81890890427036</v>
       </c>
       <c r="F54" t="n">
-        <v>0.314382754299276</v>
+        <v>0.3061869727203555</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.657124852475923</v>
+        <v>-2.714246569774374</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>4.123320164935591</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34622440247268</v>
+        <v>-11.36236721187653</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06551116958090517</v>
+        <v>0.05832349532079755</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.120710203798601</v>
+        <v>-3.183775826587196</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.988666633439935</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.8993317372732</v>
+        <v>-10.9188785454159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1575369662553977</v>
+        <v>0.1477570160326283</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.189772101288706</v>
+        <v>-3.255194338588811</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.833723394451</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14360474034025</v>
+        <v>-10.16177685668456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09282171330874574</v>
+        <v>0.08458665482130005</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.556291119342827</v>
+        <v>-3.619356742131422</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.663147039143491</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.841604590690153</v>
+        <v>-9.859842168548678</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08171177587430448</v>
+        <v>-0.09009084969300915</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.58961103007502</v>
+        <v>-3.653017052737499</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.4852844037135</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.297619407616436</v>
+        <v>-9.31411570919701</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00955466723536795</v>
+        <v>-0.001704713208516468</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.875808770195152</v>
+        <v>-3.936648701500653</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.309326270928096</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.932344158332278</v>
+        <v>-8.949010659849796</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1270373283123601</v>
+        <v>-0.1376944628255251</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.787344079893609</v>
+        <v>-3.848472041861628</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.139555894273484</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.405392061255645</v>
+        <v>-8.416559795579637</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.152567318853726</v>
+        <v>-0.1609594849752723</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.189539623191434</v>
+        <v>-4.251060354244705</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>2.979832009380643</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.892723666579336</v>
+        <v>-7.909311614279803</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09450295575067084</v>
+        <v>-0.1055790439547711</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.146439762236471</v>
+        <v>-4.208523462311937</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.839715379044336</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.408779784337773</v>
+        <v>-7.429177592165183</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1530255494531864</v>
+        <v>-0.159493147056999</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.149333161164493</v>
+        <v>-4.211115738274598</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.723118534739659</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.056950330072069</v>
+        <v>-7.071456601620701</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3108532602101941</v>
+        <v>-0.3175565192651579</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.399566345378403</v>
+        <v>-4.457277216304732</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.630435918497269</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.682981791701005</v>
+        <v>-6.70121936955953</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2563630957829302</v>
+        <v>-0.2633412931975702</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.685057101145082</v>
+        <v>-4.741301634153137</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.570078008893227</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.434463699159361</v>
+        <v>-6.45144441594508</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3742723751755152</v>
+        <v>-0.3797580500661984</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.679951103036809</v>
+        <v>-4.733917575350404</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.54520334891135</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.270443329158217</v>
+        <v>-6.287083646070051</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4292862317164481</v>
+        <v>-0.4361073214969874</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.796773721293531</v>
+        <v>-4.847598040925111</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.5528532051684</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.994117185380746</v>
+        <v>-6.009814856487976</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3988073507009098</v>
+        <v>-0.4020673341084997</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.794731322050222</v>
+        <v>-4.843526334741335</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.598022651105133</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.860916096269025</v>
+        <v>-5.874414260498845</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6553248402788487</v>
+        <v>-0.6592001619199996</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.896733453490109</v>
+        <v>-4.942189928956582</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.68235051907343</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.621628077230798</v>
+        <v>-5.640782116288244</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5993683379333115</v>
+        <v>-0.6053122434234551</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.765391471381913</v>
+        <v>-4.807116640538494</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>2.80049285739999</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.499228137963502</v>
+        <v>-5.517635915758968</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7000612390890266</v>
+        <v>-0.7016977769442424</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.743422587213497</v>
+        <v>-4.782031788293748</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.951279673851156</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.476984315435408</v>
+        <v>-5.497369030959976</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7927285586027638</v>
+        <v>-0.7950982654171163</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.644863731420983</v>
+        <v>-4.679623795465766</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.134046269424986</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.510395872287494</v>
+        <v>-5.534708278664579</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8530317054917541</v>
+        <v>-0.8516701059962145</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.458939938765631</v>
+        <v>-4.491579049750055</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.341708863849541</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.747523661356836</v>
+        <v>-5.771089806471943</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7444965149338449</v>
+        <v>-0.7446405302651039</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.344735781077254</v>
+        <v>-4.379980260327181</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.566884845893955</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.949891386381396</v>
+        <v>-5.970446301842906</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.076190007428975</v>
+        <v>-1.072720547175918</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.17941927309478</v>
+        <v>-4.215671859663519</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.808349743723068</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.478283636770619</v>
+        <v>-6.497634060370689</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9871623481052376</v>
+        <v>-0.985905487032432</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.013147027004859</v>
+        <v>-4.048404598557627</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>4.059096867072988</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.944736202415634</v>
+        <v>-6.963772410747504</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.045554018779336</v>
+        <v>-1.043904388621278</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.93382076408684</v>
+        <v>-3.971343304031227</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>4.308533132736529</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.519409743350359</v>
+        <v>-7.541941596540969</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.139465107063037</v>
+        <v>-1.13289277103649</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.529124590946246</v>
+        <v>-3.570954498525561</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.555621868168849</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.945642754665593</v>
+        <v>-7.966538070000987</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.104626489201204</v>
+        <v>-1.097046045855844</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.319320437907586</v>
+        <v>-3.366269435898015</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>4.795844956381039</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.418039225800753</v>
+        <v>-8.438358479811111</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.288848282487131</v>
+        <v>-1.284082684252743</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.951374358843716</v>
+        <v>-2.999174356518858</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>5.018561224556998</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.360554107376613</v>
+        <v>-9.379537946497114</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.212376141588609</v>
+        <v>-1.205947820893322</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.927114321677998</v>
+        <v>-2.979339517713643</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>5.224081967487765</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18785672394528</v>
+        <v>-10.20283431839622</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.305501691701807</v>
+        <v>-1.298418755864433</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.752698663220523</v>
+        <v>-2.804675105502175</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>5.410664859655925</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02232083016838</v>
+        <v>-11.03710204007669</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.415319927938205</v>
+        <v>-1.406652823456983</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.377695832924963</v>
+        <v>-2.430104321200393</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>5.571130902123509</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24069053261941</v>
+        <v>-12.25009080605976</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.489906777227519</v>
+        <v>-1.482771472178778</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.273494194607665</v>
+        <v>-2.325130237015433</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>5.703980650601129</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.1298150032067</v>
+        <v>-13.13642661614178</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.589251171190536</v>
+        <v>-1.579353390242191</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.927765753466205</v>
+        <v>-1.983198563698073</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>5.809944839758563</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32367591473802</v>
+        <v>-14.32399013000622</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.800731138992937</v>
+        <v>-1.787507913122794</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.685675981619849</v>
+        <v>-1.735570747749667</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>5.884221254338295</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42793310562057</v>
+        <v>-15.42382212252826</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.841474385436389</v>
+        <v>-1.828630836348655</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.269942997183679</v>
+        <v>-1.321042255174936</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>5.920653741701353</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84541054968856</v>
+        <v>-16.83752898337784</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.867384052760165</v>
+        <v>-1.85020695143182</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9651934639368213</v>
+        <v>-1.012718523252287</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>5.919273558510517</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54219918258195</v>
+        <v>-18.52375212787795</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.093645230470874</v>
+        <v>-2.076860898227782</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7556642492578373</v>
+        <v>-0.8067242303405689</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>5.873106137629594</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15696453817191</v>
+        <v>-20.13706423785249</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.315847794300649</v>
+        <v>-2.300686907609931</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.466952786992094</v>
+        <v>-0.5159179996201495</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>5.771821750023951</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98546173765306</v>
+        <v>-21.96239310004594</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.527720531188302</v>
+        <v>-2.508867615096217</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6326882486655043</v>
+        <v>-0.6747538176959702</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>5.612722329575962</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70991440645101</v>
+        <v>-23.68261695502601</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.631791246477183</v>
+        <v>-2.610097300668443</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4541877917214111</v>
+        <v>-0.4960700685120928</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>5.389324393437403</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78967908207056</v>
+        <v>-25.76081055430456</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.805120243798794</v>
+        <v>-2.787157604299946</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4515038696388572</v>
+        <v>-0.4896024709082801</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>5.093146219359721</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05966182567755</v>
+        <v>-28.02690488396755</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.677692860240275</v>
+        <v>-2.658839944148189</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5862498504859019</v>
+        <v>-0.6256053128281305</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.724661436859151</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.34024933458634</v>
+        <v>-30.30682468543142</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.166232140779283</v>
+        <v>-3.148020747526442</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9738867530237274</v>
+        <v>-1.004653664701784</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.27824424806172</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52401926398057</v>
+        <v>-32.48957341520399</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.22552718034946</v>
+        <v>-3.208467909746691</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.198301916033754</v>
+        <v>-1.230639904052817</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.761635377439182</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74891211660065</v>
+        <v>-34.71461028315533</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.605505085724876</v>
+        <v>-3.57951686458405</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.434238305544499</v>
+        <v>-1.461823787632016</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.161452795329486</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.25277575817224</v>
+        <v>-37.21882741690364</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.849519426088966</v>
+        <v>-3.826437696179003</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.865472576545273</v>
+        <v>-1.888410291123977</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.511620451418961</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78803474195828</v>
+        <v>-39.74990995608318</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.742712419506165</v>
+        <v>-3.722013488713396</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.34527929108885</v>
+        <v>-2.365114129894065</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.779961374515856</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.3538773451826</v>
+        <v>-42.31905181962361</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.925153659605618</v>
+        <v>-3.906300743513532</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.709808279111029</v>
+        <v>-2.723280258735165</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.03769394361427</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59548906853157</v>
+        <v>-44.56940920127085</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.16630078564737</v>
+        <v>-4.14438427069032</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.319791760809888</v>
+        <v>-3.329100388130355</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1964538530899914</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89762650791784</v>
+        <v>-46.87643006961709</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.309936440123947</v>
+        <v>-4.287103463967976</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.595764412410631</v>
+        <v>-3.604863562885631</v>
       </c>
     </row>
   </sheetData>
